--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758964.9261764758</v>
+        <v>757077.3446600741</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>351.4907066044592</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>303.1671716525669</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.39183767369498</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>211.182961130578</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>20.09012517183887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>167.2286752376182</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>99.81833285426082</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>195.2026164713292</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>88.35924640834588</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532049</v>
       </c>
       <c r="X16" t="n">
-        <v>103.4286568439259</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>164.3675597136121</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>177.7059714321713</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.621991078756682</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.6519788371598</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.129165153204</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404417</v>
       </c>
       <c r="W28" t="n">
-        <v>256.6289271138775</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>43.97186549014486</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>75.82820925127162</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1825.581288436855</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C2" t="n">
-        <v>1456.618771496444</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>1098.353072889693</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>1098.353072889693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>687.3671681000858</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2212.181128500977</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2127.158480917584</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>411.0644718652463</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>411.0644718652463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>411.0644718652463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>411.0644718652463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0644718652463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.638474227114</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>881.6759572867027</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>881.6759572867027</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>495.8877046884584</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
         <v>395.0611058457707</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>1520.337903526926</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1250.638474227114</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296039</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296039</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6471865296039</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6471865296039</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6471865296039</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="11">
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5121,19 +5121,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113634</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.8933943850828</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>444.8933943850828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850828</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,40 +5267,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,16 +5501,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5522,22 +5522,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557903</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028581</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028581</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,16 +5750,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1319.415289313285</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1030.286650526843</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>775.6021623209559</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W22" t="n">
-        <v>486.1849922839954</v>
+        <v>496.6650364395579</v>
       </c>
       <c r="X22" t="n">
-        <v>486.1849922839954</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S25" t="n">
-        <v>1375.025382843599</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466634</v>
+        <v>786.0822064765176</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407765</v>
+        <v>531.3977182706307</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4560528787342</v>
+        <v>439.5324299542198</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2807352321981</v>
+        <v>395.1164042065988</v>
       </c>
       <c r="D31" t="n">
-        <v>525.2807352321981</v>
+        <v>300.7606300756339</v>
       </c>
       <c r="E31" t="n">
-        <v>433.1285069311758</v>
+        <v>300.7606300756339</v>
       </c>
       <c r="F31" t="n">
-        <v>341.9994247146362</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>229.5849683158278</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.260356661999</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1101.604051906409</v>
+        <v>902.6804289818945</v>
       </c>
       <c r="X31" t="n">
-        <v>929.3753662897625</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3436524276032</v>
+        <v>565.4200295030887</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>261.8048459311024</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331624</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,67 +7157,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7649,46 +7649,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>288.4091825776751</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>104.8749102765749</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>94.13752431970613</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>28.1226370626303</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>62.91120742583783</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>60.25622660986647</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338611</v>
       </c>
       <c r="X16" t="n">
-        <v>122.2809985451112</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>57.1800013447772</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>43.841589626218</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>216.0876643102805</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>75.26883114644345</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.3938331833871</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338632</v>
       </c>
       <c r="W28" t="n">
-        <v>29.89407122271354</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>68.07169897992583</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>17.88236248770729</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26323,7 +26323,7 @@
         <v>371477.6067508236</v>
       </c>
       <c r="F2" t="n">
-        <v>371477.6067508234</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="G2" t="n">
         <v>371477.6067508236</v>
@@ -26332,19 +26332,19 @@
         <v>371477.6067508236</v>
       </c>
       <c r="I2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="J2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="K2" t="n">
-        <v>386481.0304780069</v>
+        <v>386481.0304780066</v>
       </c>
       <c r="L2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="N2" t="n">
         <v>389994.8406855348</v>
@@ -26353,7 +26353,7 @@
         <v>389994.8406855348</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284573</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26436,7 +26436,7 @@
         <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26445,13 +26445,13 @@
         <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819115</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448464.9843789438</v>
+        <v>-448464.9843789439</v>
       </c>
       <c r="C6" t="n">
         <v>141502.8948356007</v>
@@ -26528,40 +26528,40 @@
         <v>141502.8948356007</v>
       </c>
       <c r="E6" t="n">
-        <v>-267844.36326166</v>
+        <v>-267941.822387632</v>
       </c>
       <c r="F6" t="n">
-        <v>257315.6732152361</v>
+        <v>257218.2140892641</v>
       </c>
       <c r="G6" t="n">
-        <v>257315.6732152362</v>
+        <v>257218.2140892641</v>
       </c>
       <c r="H6" t="n">
-        <v>257315.6732152362</v>
+        <v>257218.2140892641</v>
       </c>
       <c r="I6" t="n">
-        <v>257315.6732152362</v>
+        <v>257218.2140892642</v>
       </c>
       <c r="J6" t="n">
-        <v>80892.45402264327</v>
+        <v>80794.99489667109</v>
       </c>
       <c r="K6" t="n">
-        <v>205350.9865438712</v>
+        <v>205332.4928059365</v>
       </c>
       <c r="L6" t="n">
-        <v>237343.4332364513</v>
+        <v>237343.4332364514</v>
       </c>
       <c r="M6" t="n">
-        <v>112885.3248034811</v>
+        <v>112885.3248034809</v>
       </c>
       <c r="N6" t="n">
-        <v>247686.3400373182</v>
+        <v>247686.3400373184</v>
       </c>
       <c r="O6" t="n">
         <v>247686.3400373182</v>
       </c>
       <c r="P6" t="n">
-        <v>203523.7347344725</v>
+        <v>203523.7347344723</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26744,31 +26744,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>31.24313505902137</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>110.6169983682281</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>109.0292103492363</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>258.9088560886878</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>143.5000804901049</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>329.1508435455742</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>57.8064302204661</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.0577128874506</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>154.0383522460838</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>96.90822413894215</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>11.18263959690384</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28056,16 +28056,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28798,19 +28798,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>420.3639292382666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8335596281414</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>343.3952292757304</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>338.5470141130965</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>213.4866460137771</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686865</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494721</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412288</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
